--- a/Data/HaqSL.xlsx
+++ b/Data/HaqSL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://buckeyemailosu-my.sharepoint.com/personal/avila_75_buckeyemail_osu_edu/Documents/Devonian Study/Models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avila\Documents\GitHub\avila_etal_2023\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{1E8C46A8-D156-4992-93D1-B8BAA124CA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27A1DCEB-07C4-470A-A5EA-B677CCDAE652}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0F1444-ACA8-4E7B-9BE1-D31234B9ECEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HaqSL" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +182,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -525,9 +538,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -584,10 +602,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -889,16 +903,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -906,627 +920,627 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A2" s="2">
         <v>-357.81327987562901</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>105.527144785828</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A3" s="2">
         <v>-358.89579838808601</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>105.58442089759799</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A4" s="2">
         <v>-359.673935277993</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>111.974798510821</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A5" s="2">
         <v>-360.75890848095497</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>115.206807674998</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A6" s="2">
         <v>-361.843881683917</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>118.438816839176</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A7" s="2">
         <v>-362.61710919281597</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>118.479728347584</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A8" s="2">
         <v>-363.547436893998</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>121.70355521008</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A9" s="2">
         <v>-364.78951028924399</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>128.11847972834701</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A10" s="2">
         <v>-365.87693818270998</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>134.52522194493301</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A11" s="2">
         <v>-366.96191138567201</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>137.75723110910999</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A12" s="2">
         <v>-367.73513889457098</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>137.79814261751801</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A13" s="2">
         <v>-368.82011209753301</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>141.03015178169599</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A14" s="2">
         <v>-369.74798510821</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>141.079245591784</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A15" s="2">
         <v>-370.98760381295199</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>144.319437057644</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A16" s="2">
         <v>-371.91547682363</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>144.36853086773201</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A17" s="2">
         <v>-372.84334983430801</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>144.41762467782101</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A18" s="2">
         <v>-373.77613222599501</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>150.81618459272499</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A19" s="2">
         <v>-374.70891461768201</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>157.21474450763</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A20" s="2">
         <v>-375.48214212658002</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>157.25565601603699</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A21" s="2">
         <v>-376.41492451826701</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>163.65421593094101</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A22" s="2">
         <v>-377.65454322300798</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>166.89440739680001</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A23" s="2">
         <v>-378.73951642597001</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>170.12641656097799</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A24" s="2">
         <v>-380.13378063249098</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>173.374790328519</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A25" s="2">
         <v>-381.061653643169</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>173.42388413860701</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A26" s="2">
         <v>-381.68023565028801</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>173.45661334533301</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A27" s="2">
         <v>-382.61056335146998</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <v>176.68044020783</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A28" s="2">
         <v>-383.383790860369</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="2">
         <v>176.721351716237</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A29" s="2">
         <v>-384.61850018410098</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="2">
         <v>173.61207707728099</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A30" s="2">
         <v>-385.54637319477899</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="2">
         <v>173.66117088736999</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A31" s="2">
         <v>-386.47424620545701</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="2">
         <v>173.710264697459</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A32" s="2">
         <v>-387.09282821257602</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="2">
         <v>173.742993904184</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A33" s="2">
         <v>-388.018246532749</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="2">
         <v>170.61735466186599</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A34" s="2">
         <v>-389.10076504520703</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="2">
         <v>170.67463077363601</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A35" s="2">
         <v>-390.02618336538001</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="2">
         <v>167.548991531317</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A36" s="2">
         <v>-391.258437998609</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="2">
         <v>161.264983839953</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A37" s="2">
         <v>-392.18385631878198</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="2">
         <v>158.13934459763499</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A38" s="2">
         <v>-393.10927463895598</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="2">
         <v>155.01370535531601</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A39" s="2">
         <v>-394.18933846090903</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="2">
         <v>151.89624841467801</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A40" s="2">
         <v>-394.960111279302</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="2">
         <v>148.76242687067801</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A41" s="2">
         <v>-395.73088409769599</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="2">
         <v>145.62860532667801</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A42" s="2">
         <v>-396.34701141430997</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="2">
         <v>142.486601480996</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A43" s="2">
         <v>-397.120238923209</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="2">
         <v>142.52751298940299</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A44" s="2">
         <v>-398.35249355643703</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="2">
         <v>136.24350529803999</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A45" s="2">
         <v>-399.58720288017003</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="2">
         <v>133.13423065908401</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A46" s="2">
         <v>-400.51262120034301</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="2">
         <v>130.008591416765</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A47" s="2">
         <v>-401.44049421102102</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="2">
         <v>130.05768522685401</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A48" s="2">
         <v>-402.21372171991902</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="2">
         <v>130.098596735261</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A49" s="2">
         <v>-402.98694922881799</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="2">
         <v>130.13950824366799</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A50" s="2">
         <v>-404.224113243055</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="2">
         <v>130.20496665712</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A51" s="2">
         <v>-405.46373194779602</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="2">
         <v>133.445158122979</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A52" s="2">
         <v>-406.700895962034</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="2">
         <v>133.510616536431</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A53" s="2">
         <v>-407.94051466677502</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="2">
         <v>136.750808002291</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A54" s="2">
         <v>-408.87329705846201</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="2">
         <v>143.14936791719501</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A55" s="2">
         <v>-409.64652456736002</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="2">
         <v>143.190279425602</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A56" s="2">
         <v>-410.422206766763</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="2">
         <v>146.40592398641701</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A57" s="2">
         <v>-411.35253446794502</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="2">
         <v>149.62975084891301</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A58" s="2">
         <v>-411.97357116556799</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="2">
         <v>152.837213108047</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A59" s="2">
         <v>-412.90389886675098</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="2">
         <v>156.06103997054299</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A60" s="2">
         <v>-413.49207834331298</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="2">
         <v>151.666666666666</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A61" s="2">
         <v>-413.834226567933</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="2">
         <v>159.28486683304001</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A62" s="2">
         <v>-414.30061776377698</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="2">
         <v>162.484146790491</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A63" s="2">
         <v>-414.69124251496999</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="2">
         <v>154.583333333333</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A64" s="2">
         <v>-414.91919977089498</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="2">
         <v>162.516875997217</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A65" s="2">
         <v>-416.19292664670598</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="2">
         <v>163.333333333333</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A66" s="2">
         <v>-417.99245259481</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="2">
         <v>169.166666666666</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A67" s="2">
         <v>-419.793537924151</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="2">
         <v>177.916666666666</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A68" s="2">
         <v>-421.44336327345297</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="2">
         <v>183.75</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A69" s="2">
         <v>-422.79534680638699</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="2">
         <v>192.49999999999901</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A70" s="2">
         <v>-424.13953343313301</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="2">
         <v>186.666666666666</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A71" s="2">
         <v>-425.93438123752401</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="2">
         <v>183.75</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A72" s="2">
         <v>-428.02863023952</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="2">
         <v>180.833333333333</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A73" s="2">
         <v>-429.97629740518897</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="2">
         <v>183.75</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A74" s="2">
         <v>-432.07210578842302</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="2">
         <v>183.75</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A75" s="2">
         <v>-434.01353542914097</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="2">
         <v>175</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A76" s="2">
         <v>-435.50742265469</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="2">
         <v>169.166666666666</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A77" s="2">
         <v>-437.14633233532902</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="2">
         <v>154.583333333333</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A78" s="2">
         <v>-438.340818363273</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="2">
         <v>148.75</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A79" s="2">
         <v>-439.23278443113702</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="2">
         <v>137.083333333333</v>
       </c>
     </row>
